--- a/sheets/oo.xlsx
+++ b/sheets/oo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0a02c4a7808a1f27/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0a02c4a7808a1f27/Desktop/newStuff/Danalysis/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_6AE012AA7DA232F54B2696D39561FC6B141F84AA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D93531B7-19EE-48EC-BFE2-ED68D7892382}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_6AE012AA7DA232F54B2696D39561FC6B141F84AA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31B6E253-2229-4A58-B904-60B7C3C32AA6}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="21520" windowHeight="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10723" uniqueCount="3977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10722" uniqueCount="3977">
   <si>
     <t>Sr.No.</t>
   </si>
@@ -12608,16 +12608,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1785" workbookViewId="0">
-      <selection activeCell="A1785" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C2212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="7.05859375" style="3" customWidth="1"/>
     <col min="2" max="2" width="105.29296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.46875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.87890625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="36.1171875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="28.29296875" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.52734375" style="3" customWidth="1"/>
     <col min="6" max="6" width="64.76171875" style="3" customWidth="1"/>
     <col min="7" max="7" width="9.1171875" style="2" customWidth="1"/>
@@ -12651,9 +12651,7 @@
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
